--- a/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll0_l20_HTrue_c0.xlsx
+++ b/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll0_l20_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>11.75284877190223</v>
+        <v>14.06437094394977</v>
       </c>
       <c r="I2" t="n">
         <v>80</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>5.322235547579252</v>
+        <v>4.431727684461153</v>
       </c>
       <c r="I3" t="n">
         <v>140</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>9.063968291649452</v>
+        <v>9.97891066624568</v>
       </c>
       <c r="I4" t="n">
         <v>120</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>21.73461011739878</v>
+        <v>19.80826867543734</v>
       </c>
       <c r="I5" t="n">
         <v>60</v>
@@ -1462,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>45</v>
       </c>
-      <c r="D7" t="n">
-        <v>56</v>
-      </c>
       <c r="E7" t="n">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.25</v>
+        <v>13.875</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0625</v>
+        <v>6.1875</v>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>13.875</v>
       </c>
       <c r="E5" t="n">
-        <v>2.8125</v>
+        <v>22.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.390625</v>
+        <v>18.75</v>
       </c>
       <c r="C6" t="n">
-        <v>6.09375</v>
+        <v>7.96875</v>
       </c>
       <c r="D6" t="n">
-        <v>17.109375</v>
+        <v>9.84375</v>
       </c>
       <c r="E6" t="n">
-        <v>19.21875</v>
+        <v>16.40625</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.94921875</v>
+        <v>10.828125</v>
       </c>
       <c r="C7" t="n">
+        <v>1.4765625</v>
+      </c>
+      <c r="D7" t="n">
         <v>11.07421875</v>
       </c>
-      <c r="D7" t="n">
-        <v>13.78125</v>
-      </c>
       <c r="E7" t="n">
-        <v>37.40625</v>
+        <v>16.48828125</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.953125</v>
+        <v>25.1513671875</v>
       </c>
       <c r="C8" t="n">
-        <v>7.96875</v>
+        <v>3.984375</v>
       </c>
       <c r="D8" t="n">
-        <v>11.7041015625</v>
+        <v>11.455078125</v>
       </c>
       <c r="E8" t="n">
-        <v>25.6494140625</v>
+        <v>26.396484375</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>13.237060546875</v>
       </c>
       <c r="C9" t="n">
-        <v>7.242919921875</v>
+        <v>2.747314453125</v>
       </c>
       <c r="D9" t="n">
-        <v>9.990234375</v>
+        <v>17.732666015625</v>
       </c>
       <c r="E9" t="n">
-        <v>23.726806640625</v>
+        <v>30.47021484375</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.4952392578125</v>
+        <v>12.24700927734375</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4974365234375</v>
+        <v>5.99853515625</v>
       </c>
       <c r="D10" t="n">
-        <v>9.4976806640625</v>
+        <v>14.996337890625</v>
       </c>
       <c r="E10" t="n">
-        <v>44.23919677734375</v>
+        <v>5.74859619140625</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.74903869628906</v>
+        <v>20.49874877929688</v>
       </c>
       <c r="C11" t="n">
-        <v>7.99951171875</v>
+        <v>6.99957275390625</v>
       </c>
       <c r="D11" t="n">
-        <v>14.74909973144531</v>
+        <v>15.49905395507812</v>
       </c>
       <c r="E11" t="n">
-        <v>40.24754333496094</v>
+        <v>25.24845886230469</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.999847412109375</v>
+        <v>25.74960708618164</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6.499900817871094</v>
       </c>
       <c r="D12" t="n">
-        <v>6.499900817871094</v>
+        <v>14.49977874755859</v>
       </c>
       <c r="E12" t="n">
-        <v>25.74960708618164</v>
+        <v>43.74933242797852</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.999969482421875</v>
+        <v>19.24992656707764</v>
       </c>
       <c r="C13" t="n">
-        <v>5.249979972839355</v>
+        <v>12.49995231628418</v>
       </c>
       <c r="D13" t="n">
-        <v>9.999961853027344</v>
+        <v>8.749966621398926</v>
       </c>
       <c r="E13" t="n">
-        <v>26.49989891052246</v>
+        <v>20.24992275238037</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.99997043609619</v>
+        <v>23.24997782707214</v>
       </c>
       <c r="C14" t="n">
-        <v>4.999995231628418</v>
+        <v>3.249996900558472</v>
       </c>
       <c r="D14" t="n">
-        <v>16.99998378753662</v>
+        <v>11.9999885559082</v>
       </c>
       <c r="E14" t="n">
-        <v>36.99996471405029</v>
+        <v>50.2499520778656</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
